--- a/Week4/Project_week_4/Progetto_Excel.xlsx
+++ b/Week4/Project_week_4/Progetto_Excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98D1F60B-EBC7-4464-9AFE-3CF0A27C8B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2185BF41-5987-4B8A-BEB9-CE4835738695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E123DFDF-41E7-4503-B4AC-A725FA0C5974}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="384" xr2:uid="{E123DFDF-41E7-4503-B4AC-A725FA0C5974}"/>
   </bookViews>
   <sheets>
     <sheet name="Esercizio 1.1" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,11 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
     <pivotCache cacheId="1" r:id="rId13"/>
     <pivotCache cacheId="2" r:id="rId14"/>
     <pivotCache cacheId="3" r:id="rId15"/>
-    <pivotCache cacheId="61" r:id="rId16"/>
+    <pivotCache cacheId="4" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -383,7 +383,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="171" formatCode="#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -787,18 +787,18 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -806,9 +806,63 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Valuta" xfId="2" builtinId="4"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="27">
     <dxf>
-      <numFmt numFmtId="171" formatCode="#,##0\ &quot;€&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="#,##0\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1198,27 +1252,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1240,12 +1273,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -15754,8 +15781,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Settore 3">
@@ -15778,7 +15805,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -16068,8 +16095,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>137159</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Età">
@@ -16092,7 +16119,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -16146,8 +16173,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>68581</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="Settore">
@@ -16170,7 +16197,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -16833,8 +16860,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Settore 1">
@@ -16857,7 +16884,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17031,8 +17058,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Settore 2">
@@ -17055,7 +17082,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -19289,7 +19316,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31904C8A-7911-474C-98AB-5F46F0542837}" name="Tabella pivot3" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31904C8A-7911-474C-98AB-5F46F0542837}" name="Tabella pivot3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -19436,7 +19463,7 @@
     <dataField name="Media di Stipendio" fld="4" subtotal="average" baseField="3" baseItem="3" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="23">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -19473,7 +19500,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8361509-31F5-4B0E-A8B5-45E539867DE0}" name="Tabella pivot10" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8361509-31F5-4B0E-A8B5-45E539867DE0}" name="Tabella pivot10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -19537,7 +19564,7 @@
     <dataField name="Media di Stipendio" fld="4" subtotal="average" baseField="5" baseItem="0" numFmtId="167"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="22">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -19788,7 +19815,7 @@
     <dataField name="Media di Anz_lavoro" fld="8" subtotal="average" baseField="3" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="14">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -19926,7 +19953,7 @@
     <dataField name="Media di Età" fld="5" subtotal="average" baseField="3" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="15">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -19935,7 +19962,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -19944,7 +19971,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -19953,7 +19980,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -19962,7 +19989,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="6">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20222,7 +20249,7 @@
     <dataField name="Media di Anz_lavoro" fld="8" subtotal="average" baseField="3" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="13">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20497,7 +20524,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9EFB611-E0AE-4AC4-9C1C-9399E18782E1}" name="Tabella pivot4" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9EFB611-E0AE-4AC4-9C1C-9399E18782E1}" name="Tabella pivot4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -20534,10 +20561,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Media di Stipendio" fld="1" subtotal="average" baseField="0" baseItem="0" numFmtId="171"/>
+    <dataField name="Media di Stipendio" fld="1" subtotal="average" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20722,33 +20749,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{973E33C1-54DB-4E41-901A-890E5EDA507D}" name="Tabella1" displayName="Tabella1" ref="A1:L29" totalsRowShown="0" headerRowBorderDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{973E33C1-54DB-4E41-901A-890E5EDA507D}" name="Tabella1" displayName="Tabella1" ref="A1:L29" totalsRowShown="0" headerRowBorderDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="A1:L29" xr:uid="{973E33C1-54DB-4E41-901A-890E5EDA507D}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{6F31D333-6641-4C7C-BD5C-DC31D34373AA}" name="Cognome" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{F4AD1935-ECAF-4B8A-8C2A-9A5AB5B658E6}" name="Dt_nascita" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{A72D4F8F-E05B-419D-A9B9-BA9F518870BB}" name="Dt_assunzione" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{5AE386B9-5EB5-4E4E-9366-2954F2E283C6}" name="Settore" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{36FB6267-9D1F-41F2-9A75-C8C010CD81D8}" name="Stipendio" dataDxfId="8" dataCellStyle="Euro"/>
-    <tableColumn id="6" xr3:uid="{F9F08D35-2E4E-403E-973D-071306BA0ECA}" name="Età" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{6F31D333-6641-4C7C-BD5C-DC31D34373AA}" name="Cognome" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{F4AD1935-ECAF-4B8A-8C2A-9A5AB5B658E6}" name="Dt_nascita" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{A72D4F8F-E05B-419D-A9B9-BA9F518870BB}" name="Dt_assunzione" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{5AE386B9-5EB5-4E4E-9366-2954F2E283C6}" name="Settore" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{36FB6267-9D1F-41F2-9A75-C8C010CD81D8}" name="Stipendio" dataDxfId="20" dataCellStyle="Euro"/>
+    <tableColumn id="6" xr3:uid="{F9F08D35-2E4E-403E-973D-071306BA0ECA}" name="Età" dataDxfId="19">
       <calculatedColumnFormula>DATEDIF(B2,TODAY(),"y")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{790B8E96-6F27-4FD4-AE98-B7ACD2D9B6CD}" name="Eta(2)" dataDxfId="6">
+    <tableColumn id="7" xr3:uid="{790B8E96-6F27-4FD4-AE98-B7ACD2D9B6CD}" name="Eta(2)" dataDxfId="18">
       <calculatedColumnFormula>INT((TODAY()-B2)/365.25)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C026C63E-C79A-43E8-8539-015ADF8E380B}" name="Eta(3)" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{C026C63E-C79A-43E8-8539-015ADF8E380B}" name="Eta(3)" dataDxfId="17">
       <calculatedColumnFormula>INT(YEARFRAC(TODAY(),B2,1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DE670940-9EF3-4D72-B20D-D8ADE194C4CF}" name="Anz_lavoro" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{DE670940-9EF3-4D72-B20D-D8ADE194C4CF}" name="Anz_lavoro" dataDxfId="16">
       <calculatedColumnFormula>DATEDIF(C2,TODAY(),"y")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{299ECAD6-7BA8-41AC-889A-EC625998CBD1}" name="Anz_lavoro(gg)" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{299ECAD6-7BA8-41AC-889A-EC625998CBD1}" name="Anz_lavoro(gg)" dataDxfId="15">
       <calculatedColumnFormula>NETWORKDAYS(C2,TODAY(),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{07471187-388E-4E2B-B65E-E2533F08C9A0}" name="Anz_lavoro(yy)" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{07471187-388E-4E2B-B65E-E2533F08C9A0}" name="Anz_lavoro(yy)" dataDxfId="14">
       <calculatedColumnFormula>ROUND((J2/(52*5)),2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{49322A24-19A5-4F2D-BCC7-B51C224E3957}" name="Titolo di studio" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{49322A24-19A5-4F2D-BCC7-B51C224E3957}" name="Titolo di studio" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21027,7 +21054,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -21082,7 +21109,7 @@
       <c r="K1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="66" t="s">
         <v>87</v>
       </c>
       <c r="M1" s="33"/>
@@ -21105,30 +21132,30 @@
         <v>1676</v>
       </c>
       <c r="F2" s="29">
-        <f ca="1">DATEDIF(B2,TODAY(),"y")</f>
+        <f t="shared" ref="F2:F29" ca="1" si="0">DATEDIF(B2,TODAY(),"y")</f>
         <v>37</v>
       </c>
       <c r="G2" s="29">
-        <f ca="1">INT((TODAY()-B2)/365.25)</f>
+        <f t="shared" ref="G2:G29" ca="1" si="1">INT((TODAY()-B2)/365.25)</f>
         <v>37</v>
       </c>
       <c r="H2" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B2,1))</f>
+        <f t="shared" ref="H2:H29" ca="1" si="2">INT(YEARFRAC(TODAY(),B2,1))</f>
         <v>37</v>
       </c>
       <c r="I2" s="13">
-        <f ca="1">DATEDIF(C2,TODAY(),"y")</f>
+        <f t="shared" ref="I2:I29" ca="1" si="3">DATEDIF(C2,TODAY(),"y")</f>
         <v>8</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">NETWORKDAYS(C2,TODAY(),0)</f>
+        <f t="shared" ref="J2:J29" ca="1" si="4">NETWORKDAYS(C2,TODAY(),0)</f>
         <v>2186</v>
       </c>
       <c r="K2" s="44">
-        <f ca="1">ROUND((J2/(52*5)),2)</f>
+        <f t="shared" ref="K2:K29" ca="1" si="5">ROUND((J2/(52*5)),2)</f>
         <v>8.41</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="64" t="s">
         <v>86</v>
       </c>
     </row>
@@ -21149,30 +21176,30 @@
         <v>1252</v>
       </c>
       <c r="F3" s="30">
-        <f ca="1">DATEDIF(B3,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>24</v>
       </c>
       <c r="G3" s="29">
-        <f ca="1">INT((TODAY()-B3)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
       <c r="H3" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B3,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>24</v>
       </c>
       <c r="I3" s="9">
-        <f ca="1">DATEDIF(C3,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">NETWORKDAYS(C3,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>994</v>
       </c>
       <c r="K3" s="44">
-        <f ca="1">ROUND((J3/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>3.82</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="L3" s="65" t="s">
         <v>86</v>
       </c>
     </row>
@@ -21193,30 +21220,30 @@
         <v>1650</v>
       </c>
       <c r="F4" s="31">
-        <f ca="1">DATEDIF(B4,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>38</v>
       </c>
       <c r="G4" s="29">
-        <f ca="1">INT((TODAY()-B4)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>38</v>
       </c>
       <c r="H4" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B4,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>38</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">DATEDIF(C4,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>14</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">NETWORKDAYS(C4,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>3860</v>
       </c>
       <c r="K4" s="44">
-        <f ca="1">ROUND((J4/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>14.85</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="64" t="s">
         <v>86</v>
       </c>
     </row>
@@ -21237,30 +21264,30 @@
         <v>1250</v>
       </c>
       <c r="F5" s="31">
-        <f ca="1">DATEDIF(B5,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>32</v>
       </c>
       <c r="G5" s="29">
-        <f ca="1">INT((TODAY()-B5)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>32</v>
       </c>
       <c r="H5" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B5,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>32</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">DATEDIF(C5,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">NETWORKDAYS(C5,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>733</v>
       </c>
       <c r="K5" s="44">
-        <f ca="1">ROUND((J5/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2.82</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="65" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21281,30 +21308,30 @@
         <v>3680</v>
       </c>
       <c r="F6" s="31">
-        <f ca="1">DATEDIF(B6,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
       <c r="G6" s="29">
-        <f ca="1">INT((TODAY()-B6)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>66</v>
       </c>
       <c r="H6" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B6,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>66</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">DATEDIF(C6,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>35</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">NETWORKDAYS(C6,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>9275</v>
       </c>
       <c r="K6" s="44">
-        <f ca="1">ROUND((J6/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>35.67</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="64" t="s">
         <v>89</v>
       </c>
     </row>
@@ -21325,30 +21352,30 @@
         <v>1623</v>
       </c>
       <c r="F7" s="31">
-        <f ca="1">DATEDIF(B7,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>37</v>
       </c>
       <c r="G7" s="29">
-        <f ca="1">INT((TODAY()-B7)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>37</v>
       </c>
       <c r="H7" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B7,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>37</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">DATEDIF(C7,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>12</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">NETWORKDAYS(C7,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>3253</v>
       </c>
       <c r="K7" s="44">
-        <f ca="1">ROUND((J7/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>12.51</v>
       </c>
-      <c r="L7" s="66" t="s">
+      <c r="L7" s="65" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21369,30 +21396,30 @@
         <v>2584</v>
       </c>
       <c r="F8" s="31">
-        <f ca="1">DATEDIF(B8,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="G8" s="29">
-        <f ca="1">INT((TODAY()-B8)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>30</v>
       </c>
       <c r="H8" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B8,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>30</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">DATEDIF(C8,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>11</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">NETWORKDAYS(C8,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>3078</v>
       </c>
       <c r="K8" s="44">
-        <f ca="1">ROUND((J8/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>11.84</v>
       </c>
-      <c r="L8" s="65" t="s">
+      <c r="L8" s="64" t="s">
         <v>86</v>
       </c>
     </row>
@@ -21413,30 +21440,30 @@
         <v>1280</v>
       </c>
       <c r="F9" s="31">
-        <f ca="1">DATEDIF(B9,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="G9" s="29">
-        <f ca="1">INT((TODAY()-B9)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
       <c r="H9" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B9,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>28</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">DATEDIF(C9,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">NETWORKDAYS(C9,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1310</v>
       </c>
       <c r="K9" s="44">
-        <f ca="1">ROUND((J9/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>5.04</v>
       </c>
-      <c r="L9" s="66" t="s">
+      <c r="L9" s="65" t="s">
         <v>86</v>
       </c>
     </row>
@@ -21457,30 +21484,30 @@
         <v>1750</v>
       </c>
       <c r="F10" s="31">
-        <f ca="1">DATEDIF(B10,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>62</v>
       </c>
       <c r="G10" s="29">
-        <f ca="1">INT((TODAY()-B10)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>62</v>
       </c>
       <c r="H10" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B10,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>62</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">DATEDIF(C10,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>26</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">NETWORKDAYS(C10,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>6817</v>
       </c>
       <c r="K10" s="44">
-        <f ca="1">ROUND((J10/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>26.22</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="64" t="s">
         <v>86</v>
       </c>
     </row>
@@ -21501,30 +21528,30 @@
         <v>1476</v>
       </c>
       <c r="F11" s="31">
-        <f ca="1">DATEDIF(B11,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>32</v>
       </c>
       <c r="G11" s="29">
-        <f ca="1">INT((TODAY()-B11)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>32</v>
       </c>
       <c r="H11" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B11,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>32</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">DATEDIF(C11,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>9</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">NETWORKDAYS(C11,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2555</v>
       </c>
       <c r="K11" s="44">
-        <f ca="1">ROUND((J11/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>9.83</v>
       </c>
-      <c r="L11" s="66" t="s">
+      <c r="L11" s="65" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21545,30 +21572,30 @@
         <v>3277</v>
       </c>
       <c r="F12" s="31">
-        <f ca="1">DATEDIF(B12,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="G12" s="29">
-        <f ca="1">INT((TODAY()-B12)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>53</v>
       </c>
       <c r="H12" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B12,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>53</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">DATEDIF(C12,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>32</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">NETWORKDAYS(C12,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>8470</v>
       </c>
       <c r="K12" s="44">
-        <f ca="1">ROUND((J12/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>32.58</v>
       </c>
-      <c r="L12" s="65" t="s">
+      <c r="L12" s="64" t="s">
         <v>90</v>
       </c>
     </row>
@@ -21589,30 +21616,30 @@
         <v>1670</v>
       </c>
       <c r="F13" s="31">
-        <f ca="1">DATEDIF(B13,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
       <c r="G13" s="29">
-        <f ca="1">INT((TODAY()-B13)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>55</v>
       </c>
       <c r="H13" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B13,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>55</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">DATEDIF(C13,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>23</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">NETWORKDAYS(C13,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>6209</v>
       </c>
       <c r="K13" s="44">
-        <f ca="1">ROUND((J13/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>23.88</v>
       </c>
-      <c r="L13" s="66" t="s">
+      <c r="L13" s="65" t="s">
         <v>86</v>
       </c>
     </row>
@@ -21633,30 +21660,30 @@
         <v>1340</v>
       </c>
       <c r="F14" s="30">
-        <f ca="1">DATEDIF(B14,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>32</v>
       </c>
       <c r="G14" s="29">
-        <f ca="1">INT((TODAY()-B14)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>32</v>
       </c>
       <c r="H14" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B14,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>32</v>
       </c>
       <c r="I14" s="9">
-        <f ca="1">DATEDIF(C14,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">NETWORKDAYS(C14,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1430</v>
       </c>
       <c r="K14" s="44">
-        <f ca="1">ROUND((J14/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>5.5</v>
       </c>
-      <c r="L14" s="65" t="s">
+      <c r="L14" s="64" t="s">
         <v>86</v>
       </c>
     </row>
@@ -21677,30 +21704,30 @@
         <v>1599</v>
       </c>
       <c r="F15" s="31">
-        <f ca="1">DATEDIF(B15,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="G15" s="29">
-        <f ca="1">INT((TODAY()-B15)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
       <c r="H15" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B15,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>45</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">DATEDIF(C15,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>22</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">NETWORKDAYS(C15,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5947</v>
       </c>
       <c r="K15" s="44">
-        <f ca="1">ROUND((J15/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>22.87</v>
       </c>
-      <c r="L15" s="66" t="s">
+      <c r="L15" s="65" t="s">
         <v>90</v>
       </c>
     </row>
@@ -21721,30 +21748,30 @@
         <v>1414</v>
       </c>
       <c r="F16" s="31">
-        <f ca="1">DATEDIF(B16,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="G16" s="29">
-        <f ca="1">INT((TODAY()-B16)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
       <c r="H16" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B16,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>27</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">DATEDIF(C16,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">NETWORKDAYS(C16,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1774</v>
       </c>
       <c r="K16" s="44">
-        <f ca="1">ROUND((J16/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>6.82</v>
       </c>
-      <c r="L16" s="65" t="s">
+      <c r="L16" s="64" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21765,30 +21792,30 @@
         <v>1537</v>
       </c>
       <c r="F17" s="31">
-        <f ca="1">DATEDIF(B17,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="G17" s="29">
-        <f ca="1">INT((TODAY()-B17)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
       <c r="H17" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B17,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>35</v>
       </c>
       <c r="I17" s="2">
-        <f ca="1">DATEDIF(C17,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>11</v>
       </c>
       <c r="J17" s="2">
-        <f ca="1">NETWORKDAYS(C17,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>3078</v>
       </c>
       <c r="K17" s="44">
-        <f ca="1">ROUND((J17/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>11.84</v>
       </c>
-      <c r="L17" s="66" t="s">
+      <c r="L17" s="65" t="s">
         <v>86</v>
       </c>
     </row>
@@ -21809,30 +21836,30 @@
         <v>2152</v>
       </c>
       <c r="F18" s="31">
-        <f ca="1">DATEDIF(B18,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
       <c r="G18" s="29">
-        <f ca="1">INT((TODAY()-B18)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>43</v>
       </c>
       <c r="H18" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B18,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>43</v>
       </c>
       <c r="I18" s="2">
-        <f ca="1">DATEDIF(C18,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>20</v>
       </c>
       <c r="J18" s="2">
-        <f ca="1">NETWORKDAYS(C18,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5425</v>
       </c>
       <c r="K18" s="44">
-        <f ca="1">ROUND((J18/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>20.87</v>
       </c>
-      <c r="L18" s="65" t="s">
+      <c r="L18" s="64" t="s">
         <v>86</v>
       </c>
     </row>
@@ -21853,30 +21880,30 @@
         <v>1250</v>
       </c>
       <c r="F19" s="30">
-        <f ca="1">DATEDIF(B19,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="G19" s="29">
-        <f ca="1">INT((TODAY()-B19)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
       <c r="H19" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B19,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>28</v>
       </c>
       <c r="I19" s="2">
-        <f ca="1">DATEDIF(C19,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J19" s="2">
-        <f ca="1">NETWORKDAYS(C19,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>733</v>
       </c>
       <c r="K19" s="44">
-        <f ca="1">ROUND((J19/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2.82</v>
       </c>
-      <c r="L19" s="66" t="s">
+      <c r="L19" s="65" t="s">
         <v>86</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -21900,30 +21927,30 @@
         <v>1370</v>
       </c>
       <c r="F20" s="31">
-        <f ca="1">DATEDIF(B20,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="G20" s="29">
-        <f ca="1">INT((TODAY()-B20)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>30</v>
       </c>
       <c r="H20" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B20,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>30</v>
       </c>
       <c r="I20" s="2">
-        <f ca="1">DATEDIF(C20,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="J20" s="2">
-        <f ca="1">NETWORKDAYS(C20,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1450</v>
       </c>
       <c r="K20" s="44">
-        <f ca="1">ROUND((J20/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>5.58</v>
       </c>
-      <c r="L20" s="65" t="s">
+      <c r="L20" s="64" t="s">
         <v>86</v>
       </c>
     </row>
@@ -21944,30 +21971,30 @@
         <v>1310</v>
       </c>
       <c r="F21" s="30">
-        <f ca="1">DATEDIF(B21,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>32</v>
       </c>
       <c r="G21" s="29">
-        <f ca="1">INT((TODAY()-B21)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>32</v>
       </c>
       <c r="H21" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B21,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>32</v>
       </c>
       <c r="I21" s="9">
-        <f ca="1">DATEDIF(C21,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="J21" s="2">
-        <f ca="1">NETWORKDAYS(C21,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1146</v>
       </c>
       <c r="K21" s="44">
-        <f ca="1">ROUND((J21/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>4.41</v>
       </c>
-      <c r="L21" s="66" t="s">
+      <c r="L21" s="65" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21988,30 +22015,30 @@
         <v>1230</v>
       </c>
       <c r="F22" s="31">
-        <f ca="1">DATEDIF(B22,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
       <c r="G22" s="29">
-        <f ca="1">INT((TODAY()-B22)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
       <c r="H22" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B22,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>22</v>
       </c>
       <c r="I22" s="2">
-        <f ca="1">DATEDIF(C22,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="J22" s="2">
-        <f ca="1">NETWORKDAYS(C22,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>550</v>
       </c>
       <c r="K22" s="44">
-        <f ca="1">ROUND((J22/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2.12</v>
       </c>
-      <c r="L22" s="65" t="s">
+      <c r="L22" s="64" t="s">
         <v>86</v>
       </c>
     </row>
@@ -22032,30 +22059,30 @@
         <v>2768</v>
       </c>
       <c r="F23" s="31">
-        <f ca="1">DATEDIF(B23,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
       <c r="G23" s="29">
-        <f ca="1">INT((TODAY()-B23)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>39</v>
       </c>
       <c r="H23" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B23,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>39</v>
       </c>
       <c r="I23" s="2">
-        <f ca="1">DATEDIF(C23,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>14</v>
       </c>
       <c r="J23" s="2">
-        <f ca="1">NETWORKDAYS(C23,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>3860</v>
       </c>
       <c r="K23" s="44">
-        <f ca="1">ROUND((J23/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>14.85</v>
       </c>
-      <c r="L23" s="66" t="s">
+      <c r="L23" s="65" t="s">
         <v>89</v>
       </c>
     </row>
@@ -22076,30 +22103,30 @@
         <v>2275</v>
       </c>
       <c r="F24" s="31">
-        <f ca="1">DATEDIF(B24,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>38</v>
       </c>
       <c r="G24" s="29">
-        <f ca="1">INT((TODAY()-B24)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>38</v>
       </c>
       <c r="H24" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B24,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>38</v>
       </c>
       <c r="I24" s="2">
-        <f ca="1">DATEDIF(C24,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>15</v>
       </c>
       <c r="J24" s="2">
-        <f ca="1">NETWORKDAYS(C24,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4121</v>
       </c>
       <c r="K24" s="44">
-        <f ca="1">ROUND((J24/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>15.85</v>
       </c>
-      <c r="L24" s="65" t="s">
+      <c r="L24" s="64" t="s">
         <v>90</v>
       </c>
     </row>
@@ -22120,30 +22147,30 @@
         <v>1365</v>
       </c>
       <c r="F25" s="31">
-        <f ca="1">DATEDIF(B25,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="G25" s="29">
-        <f ca="1">INT((TODAY()-B25)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
       <c r="H25" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B25,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>28</v>
       </c>
       <c r="I25" s="2">
-        <f ca="1">DATEDIF(C25,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="J25" s="2">
-        <f ca="1">NETWORKDAYS(C25,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1512</v>
       </c>
       <c r="K25" s="44">
-        <f ca="1">ROUND((J25/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>5.82</v>
       </c>
-      <c r="L25" s="66" t="s">
+      <c r="L25" s="65" t="s">
         <v>89</v>
       </c>
     </row>
@@ -22164,30 +22191,30 @@
         <v>1414</v>
       </c>
       <c r="F26" s="31">
-        <f ca="1">DATEDIF(B26,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="G26" s="29">
-        <f ca="1">INT((TODAY()-B26)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>36</v>
       </c>
       <c r="H26" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B26,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>36</v>
       </c>
       <c r="I26" s="2">
-        <f ca="1">DATEDIF(C26,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>9</v>
       </c>
       <c r="J26" s="2">
-        <f ca="1">NETWORKDAYS(C26,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2555</v>
       </c>
       <c r="K26" s="44">
-        <f ca="1">ROUND((J26/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>9.83</v>
       </c>
-      <c r="L26" s="65" t="s">
+      <c r="L26" s="64" t="s">
         <v>88</v>
       </c>
     </row>
@@ -22208,30 +22235,30 @@
         <v>1414</v>
       </c>
       <c r="F27" s="31">
-        <f ca="1">DATEDIF(B27,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
       <c r="G27" s="29">
-        <f ca="1">INT((TODAY()-B27)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>29</v>
       </c>
       <c r="H27" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B27,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>29</v>
       </c>
       <c r="I27" s="2">
-        <f ca="1">DATEDIF(C27,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>8</v>
       </c>
       <c r="J27" s="2">
-        <f ca="1">NETWORKDAYS(C27,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2187</v>
       </c>
       <c r="K27" s="44">
-        <f ca="1">ROUND((J27/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>8.41</v>
       </c>
-      <c r="L27" s="66" t="s">
+      <c r="L27" s="65" t="s">
         <v>88</v>
       </c>
     </row>
@@ -22252,30 +22279,30 @@
         <v>1476</v>
       </c>
       <c r="F28" s="31">
-        <f ca="1">DATEDIF(B28,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>34</v>
       </c>
       <c r="G28" s="29">
-        <f ca="1">INT((TODAY()-B28)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>34</v>
       </c>
       <c r="H28" s="29">
-        <f ca="1">INT(YEARFRAC(TODAY(),B28,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>34</v>
       </c>
       <c r="I28" s="2">
-        <f ca="1">DATEDIF(C28,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>11</v>
       </c>
       <c r="J28" s="2">
-        <f ca="1">NETWORKDAYS(C28,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2904</v>
       </c>
       <c r="K28" s="44">
-        <f ca="1">ROUND((J28/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>11.17</v>
       </c>
-      <c r="L28" s="65" t="s">
+      <c r="L28" s="64" t="s">
         <v>89</v>
       </c>
     </row>
@@ -22296,30 +22323,30 @@
         <v>1270</v>
       </c>
       <c r="F29" s="54">
-        <f ca="1">DATEDIF(B29,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="G29" s="55">
-        <f ca="1">INT((TODAY()-B29)/365.25)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
       <c r="H29" s="55">
-        <f ca="1">INT(YEARFRAC(TODAY(),B29,1))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>27</v>
       </c>
       <c r="I29" s="56">
-        <f ca="1">DATEDIF(C29,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="J29" s="57">
-        <f ca="1">NETWORKDAYS(C29,TODAY(),0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1232</v>
       </c>
       <c r="K29" s="58">
-        <f ca="1">ROUND((J29/(52*5)),2)</f>
+        <f t="shared" ca="1" si="5"/>
         <v>4.74</v>
       </c>
-      <c r="L29" s="64" t="s">
+      <c r="L29" s="63" t="s">
         <v>88</v>
       </c>
     </row>
@@ -22328,6 +22355,16 @@
     <sortCondition ref="A5:A29"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I29">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -22437,7 +22474,7 @@
       <c r="A4" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="68">
+      <c r="B4" s="67">
         <v>1595.4615384615386</v>
       </c>
     </row>
@@ -22445,7 +22482,7 @@
       <c r="A5" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="68">
+      <c r="B5" s="67">
         <v>2383.6666666666665</v>
       </c>
     </row>
@@ -22453,7 +22490,7 @@
       <c r="A6" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="68">
+      <c r="B6" s="67">
         <v>2322.25</v>
       </c>
     </row>
@@ -22461,7 +22498,7 @@
       <c r="A7" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="67">
         <v>1396.375</v>
       </c>
     </row>
@@ -22469,7 +22506,7 @@
       <c r="A8" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="67">
         <v>1726.8571428571429</v>
       </c>
     </row>
@@ -22493,74 +22530,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
     </row>
     <row r="2" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
     </row>
     <row r="3" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
     </row>
     <row r="4" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22596,10 +22633,10 @@
   <sheetData>
     <row r="2" spans="2:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="63"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F3" s="16">
@@ -22784,7 +22821,7 @@
   <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B3" sqref="B3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
